--- a/uploads/US_m01_d0.xlsx
+++ b/uploads/US_m01_d0.xlsx
@@ -9,6 +9,17 @@
     <sheet name="y01_GDPC1" sheetId="2" r:id="rId3"/>
     <sheet name="y02_CPIAUCSL" sheetId="3" r:id="rId5"/>
     <sheet name="y03_CPIAUCSL" sheetId="4" r:id="rId6"/>
+    <sheet name="y04_CPILFESL" sheetId="5" r:id="rId7"/>
+    <sheet name="y05_UNRATE" sheetId="6" r:id="rId8"/>
+    <sheet name="y06_PAYEMS" sheetId="7" r:id="rId9"/>
+    <sheet name="y07_INDPRO" sheetId="8" r:id="rId10"/>
+    <sheet name="y08_RSAFS" sheetId="9" r:id="rId11"/>
+    <sheet name="y09_HOUST" sheetId="10" r:id="rId12"/>
+    <sheet name="y10_FEDFUNDS" sheetId="11" r:id="rId13"/>
+    <sheet name="y11_TB3MS" sheetId="12" r:id="rId14"/>
+    <sheet name="y12_GS10" sheetId="13" r:id="rId15"/>
+    <sheet name="y13_AAA" sheetId="14" r:id="rId16"/>
+    <sheet name="y14_BAA" sheetId="15" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="790">
   <si>
     <t>Row</t>
   </si>
@@ -1363,6 +1374,1029 @@
   </si>
   <si>
     <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Retail Sales (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Housing Starts (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Federal Funds Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>3-Month Treasury Bill Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>10-Year Treasury Bond Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +2417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -1475,11 +2509,67 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1565,6 +2655,62 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,9 +2718,1765 @@
 </styleSheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.3125" customWidth="true"/>
+    <col min="4" max="4" width="8.3125" customWidth="true"/>
+    <col min="5" max="5" width="8.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.3125" customWidth="true"/>
+    <col min="7" max="7" width="8.3125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3" s="0">
+        <v>204.21700000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-188.542</v>
+      </c>
+      <c r="D3" s="0">
+        <v>181.05099999999999</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-410.27999999999997</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="0">
+        <v>161.63499999999999</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-175.30699999999999</v>
+      </c>
+      <c r="D4" s="0">
+        <v>104.268</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-272.20699999999999</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>-68.974999999999994</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-20.649000000000001</v>
+      </c>
+      <c r="E5" s="0">
+        <v>123.40300000000001</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>-73.278000000000006</v>
+      </c>
+      <c r="D6" s="0">
+        <v>37.226999999999997</v>
+      </c>
+      <c r="E6" s="0">
+        <v>104.51600000000001</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-113.58</v>
+      </c>
+      <c r="D7" s="0">
+        <v>107.818</v>
+      </c>
+      <c r="E7" s="0">
+        <v>86.277000000000001</v>
+      </c>
+      <c r="F7" s="0">
+        <v>-149.995</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-112.35299999999999</v>
+      </c>
+      <c r="D8" s="0">
+        <v>36.662999999999997</v>
+      </c>
+      <c r="E8" s="0">
+        <v>144.19800000000001</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-300.322</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>-37.920000000000002</v>
+      </c>
+      <c r="E9" s="0">
+        <v>64.730999999999995</v>
+      </c>
+      <c r="F9" s="0">
+        <v>22.454000000000001</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0">
+        <v>-17.827999999999999</v>
+      </c>
+      <c r="E10" s="0">
+        <v>106.97799999999999</v>
+      </c>
+      <c r="F10" s="0">
+        <v>-23.109999999999999</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-27.716999999999999</v>
+      </c>
+      <c r="E11" s="0">
+        <v>167.98599999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.053000000000001</v>
+      </c>
+      <c r="G11" s="0">
+        <v>-175.61099999999999</v>
+      </c>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-95.792000000000002</v>
+      </c>
+      <c r="E12" s="0">
+        <v>372.68000000000001</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-48.962000000000003</v>
+      </c>
+      <c r="G12" s="0">
+        <v>-125.871</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-160.26300000000001</v>
+      </c>
+      <c r="E13" s="0">
+        <v>398.00799999999998</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.73999999999999999</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-107.354</v>
+      </c>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>97.548000000000002</v>
+      </c>
+      <c r="F14" s="0">
+        <v>91.055000000000007</v>
+      </c>
+      <c r="G14" s="0">
+        <v>70.376999999999995</v>
+      </c>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>125.783</v>
+      </c>
+      <c r="F15" s="0">
+        <v>215.346</v>
+      </c>
+      <c r="G15" s="0">
+        <v>122.401</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>129.91499999999999</v>
+      </c>
+      <c r="F16" s="0">
+        <v>423.81099999999998</v>
+      </c>
+      <c r="G16" s="0">
+        <v>109.86799999999999</v>
+      </c>
+      <c r="H16" s="0">
+        <v>-316.38900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.021999999999999999</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-0.001</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.033000000000000002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.010999999999999999</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.035999999999999997</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.0030000000000000001</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.025999999999999999</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-0.016</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-0.029000000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.042000000000000003</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-0.02</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-0.029000000000000001</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.024</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>-0.027</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.0060000000000000001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.057000000000000002</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.025000000000000001</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.017000000000000001</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.052999999999999999</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.053999999999999999</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.035000000000000003</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.073999999999999996</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.092999999999999999</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.050999999999999997</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.059999999999999998</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.086999999999999994</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.053999999999999999</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.058000000000000003</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.099000000000000005</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.049000000000000002</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.037999999999999999</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.106</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.070000000000000007</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.105</v>
+      </c>
+      <c r="F16" s="0">
+        <v>-0.191</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.064000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-0.0050000000000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.109</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-0.0030000000000000001</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.0040000000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-0.076999999999999999</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.0080000000000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-0.085999999999999993</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-0.081000000000000003</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-0.017999999999999999</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-0.064000000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.091999999999999998</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-0.060999999999999999</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-0.115</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-0.014</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.059999999999999998</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-0.032000000000000001</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.058999999999999997</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.014</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-0.070000000000000007</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.027</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.050000000000000003</v>
+      </c>
+      <c r="F11" s="0">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.080000000000000002</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.078</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.084000000000000005</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.11</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.20899999999999999</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.084000000000000005</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.23200000000000001</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.125</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.104</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.246</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.125</v>
+      </c>
+      <c r="F16" s="0">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.35699999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.058999999999999997</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.044999999999999998</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.439</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.112</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.183</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.214</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.069000000000000006</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.216</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>0.104</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>0.0040000000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-0.058999999999999997</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>-0.042000000000000003</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.029000000000000001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.157</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.255</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-0.029999999999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.069000000000000006</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.094</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.037999999999999999</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.47599999999999998</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.23000000000000001</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.098000000000000004</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.072999999999999995</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.56899999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.219</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.311</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.314</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>0.246</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>0.025999999999999999</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.372</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.071999999999999995</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.123</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.184</v>
+      </c>
+      <c r="F11" s="0">
+        <v>-0.215</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.249</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.089999999999999997</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.37</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.086999999999999994</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.33000000000000002</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.072999999999999995</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.063</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.67200000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.185</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.247</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.042999999999999997</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.434</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.155</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.152</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.064000000000000001</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.47399999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -1582,36 +4484,40 @@
     <col min="3" max="3" width="7.51171875" customWidth="true"/>
     <col min="4" max="4" width="7.51171875" customWidth="true"/>
     <col min="5" max="5" width="7.51171875" customWidth="true"/>
+    <col min="6" max="6" width="7.51171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>155</v>
+        <v>470</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>154</v>
+        <v>469</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>464</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>151</v>
+        <v>465</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>152</v>
+        <v>466</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>153</v>
+        <v>467</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>450</v>
       </c>
       <c r="B3" s="0">
         <v>6.6310000000000002</v>
@@ -1625,10 +4531,11 @@
       <c r="E3" s="0">
         <v>13.712</v>
       </c>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>451</v>
       </c>
       <c r="B4" s="0">
         <v>6.3140000000000001</v>
@@ -1642,10 +4549,11 @@
       <c r="E4" s="0">
         <v>13.355</v>
       </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>139</v>
+        <v>452</v>
       </c>
       <c r="B5" s="0">
         <v>4.5709999999999997</v>
@@ -1659,10 +4567,11 @@
       <c r="E5" s="0">
         <v>12.404999999999999</v>
       </c>
+      <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>453</v>
       </c>
       <c r="B6" s="0">
         <v>5.6559999999999997</v>
@@ -1676,10 +4585,11 @@
       <c r="E6" s="0">
         <v>8.3670000000000009</v>
       </c>
+      <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>454</v>
       </c>
       <c r="B7" s="0">
         <v>4.6699999999999999</v>
@@ -1693,10 +4603,11 @@
       <c r="E7" s="0">
         <v>8.4879999999999995</v>
       </c>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="B8" s="0">
         <v>4.6710000000000003</v>
@@ -1710,10 +4621,11 @@
       <c r="E8" s="0">
         <v>3.5419999999999998</v>
       </c>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>143</v>
+        <v>456</v>
       </c>
       <c r="B9" s="0">
         <v>4.7130000000000001</v>
@@ -1727,10 +4639,11 @@
       <c r="E9" s="0">
         <v>-4.4550000000000001</v>
       </c>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>457</v>
       </c>
       <c r="B10" s="0">
         <v>4.6929999999999996</v>
@@ -1744,10 +4657,11 @@
       <c r="E10" s="0">
         <v>-1.1719999999999999</v>
       </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="B11" s="0">
         <v>4.7720000000000002</v>
@@ -1761,10 +4675,11 @@
       <c r="E11" s="0">
         <v>-1.143</v>
       </c>
+      <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>459</v>
       </c>
       <c r="B12" s="0">
         <v>4.9020000000000001</v>
@@ -1778,10 +4693,11 @@
       <c r="E12" s="0">
         <v>-3.8159999999999998</v>
       </c>
+      <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="B13" s="0">
         <v>4.907</v>
@@ -1795,10 +4711,11 @@
       <c r="E13" s="0">
         <v>-3.4100000000000001</v>
       </c>
+      <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -1810,10 +4727,11 @@
       <c r="E14" s="0">
         <v>-6.9710000000000001</v>
       </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>149</v>
+        <v>462</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -1824,6 +4742,25 @@
       </c>
       <c r="E15" s="0">
         <v>-6.375</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="D16" s="0">
+        <v>-6.8310000000000004</v>
+      </c>
+      <c r="E16" s="0">
+        <v>-2.9009999999999998</v>
+      </c>
+      <c r="F16" s="0">
+        <v>11.138</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +4769,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -1842,42 +4779,46 @@
     <col min="5" max="5" width="6.8125" customWidth="true"/>
     <col min="6" max="6" width="6.51171875" customWidth="true"/>
     <col min="7" max="7" width="6.8125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>178</v>
+        <v>495</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>177</v>
+        <v>494</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>487</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>488</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>173</v>
+        <v>489</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>174</v>
+        <v>490</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>176</v>
+        <v>492</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="B3" s="0">
         <v>4.069</v>
@@ -1893,10 +4834,11 @@
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -1910,10 +4852,11 @@
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>475</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -1927,10 +4870,11 @@
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>161</v>
+        <v>476</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -1944,10 +4888,11 @@
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>162</v>
+        <v>477</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -1963,10 +4908,11 @@
         <v>1.3260000000000001</v>
       </c>
       <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>163</v>
+        <v>478</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -1982,10 +4928,11 @@
         <v>-1.284</v>
       </c>
       <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>164</v>
+        <v>479</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -1999,10 +4946,11 @@
         <v>0.78000000000000003</v>
       </c>
       <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>165</v>
+        <v>480</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2016,10 +4964,11 @@
         <v>1.696</v>
       </c>
       <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>166</v>
+        <v>481</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2035,10 +4984,11 @@
       <c r="G11" s="0">
         <v>3.1560000000000001</v>
       </c>
+      <c r="H11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>167</v>
+        <v>482</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2054,10 +5004,11 @@
       <c r="G12" s="0">
         <v>2.351</v>
       </c>
+      <c r="H12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>168</v>
+        <v>483</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2071,10 +5022,11 @@
       <c r="G13" s="0">
         <v>3.5579999999999998</v>
       </c>
+      <c r="H13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>169</v>
+        <v>484</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2088,10 +5040,11 @@
       <c r="G14" s="0">
         <v>3.907</v>
       </c>
+      <c r="H14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>170</v>
+        <v>485</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -2104,6 +5057,27 @@
       </c>
       <c r="G15" s="0">
         <v>3.3580000000000001</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>2.145</v>
+      </c>
+      <c r="F16" s="0">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="G16" s="0">
+        <v>6.6909999999999998</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.80900000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +5086,641 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.8125" customWidth="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true"/>
+    <col min="4" max="4" width="7.11328125" customWidth="true"/>
+    <col min="5" max="5" width="6.8125" customWidth="true"/>
+    <col min="6" max="6" width="6.51171875" customWidth="true"/>
+    <col min="7" max="7" width="6.8125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.4580000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>3.5619999999999998</v>
+      </c>
+      <c r="E4" s="0">
+        <v>3.2959999999999998</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>3.6789999999999998</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="E5" s="0">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="E6" s="0">
+        <v>3.367</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3.3599999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="F7" s="0">
+        <v>2.9769999999999999</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>3.6179999999999999</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="E8" s="0">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="F8" s="0">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3.1299999999999999</v>
+      </c>
+      <c r="F9" s="0">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="F10" s="0">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>3.085</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2.9740000000000002</v>
+      </c>
+      <c r="F11" s="0">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="G11" s="0">
+        <v>3.069</v>
+      </c>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>3.069</v>
+      </c>
+      <c r="E12" s="0">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="F13" s="0">
+        <v>2.911</v>
+      </c>
+      <c r="G13" s="0">
+        <v>3.2200000000000002</v>
+      </c>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2.758</v>
+      </c>
+      <c r="G14" s="0">
+        <v>3.036</v>
+      </c>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="F15" s="0">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="G15" s="0">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>2.867</v>
+      </c>
+      <c r="F16" s="0">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="G16" s="0">
+        <v>2.762</v>
+      </c>
+      <c r="H16" s="0">
+        <v>2.7290000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.8125" customWidth="true"/>
+    <col min="3" max="3" width="6.61328125" customWidth="true"/>
+    <col min="4" max="4" width="7.11328125" customWidth="true"/>
+    <col min="5" max="5" width="6.8125" customWidth="true"/>
+    <col min="6" max="6" width="6.51171875" customWidth="true"/>
+    <col min="7" max="7" width="6.8125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2.625</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0">
+        <v>3.468</v>
+      </c>
+      <c r="D4" s="0">
+        <v>3.6680000000000001</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3.6499999999999999</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2.911</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>3.411</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3.6349999999999998</v>
+      </c>
+      <c r="E8" s="0">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3.915</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3.9199999999999999</v>
+      </c>
+      <c r="F10" s="0">
+        <v>3.137</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>3.242</v>
+      </c>
+      <c r="E11" s="0">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>3.048</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1.571</v>
+      </c>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>2.911</v>
+      </c>
+      <c r="F13" s="0">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="G13" s="0">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>2.931</v>
+      </c>
+      <c r="F14" s="0">
+        <v>3.3479999999999999</v>
+      </c>
+      <c r="G14" s="0">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>2.9580000000000002</v>
+      </c>
+      <c r="F15" s="0">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1.919</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="F16" s="0">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="G16" s="0">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="H16" s="0">
+        <v>1.256</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -2121,243 +5729,1205 @@
     <col min="4" max="4" width="6.8125" customWidth="true"/>
     <col min="5" max="5" width="6.51171875" customWidth="true"/>
     <col min="6" max="6" width="6.8125" customWidth="true"/>
-    <col min="7" max="7" width="8.3125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>447</v>
+        <v>569</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>443</v>
+        <v>564</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>445</v>
+        <v>566</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>428</v>
+        <v>548</v>
       </c>
       <c r="B3" s="0">
-        <v>0.23499999999999999</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>0.40200000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="D3" s="0">
-        <v>0.185</v>
+        <v>1.589</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="B4" s="0">
-        <v>0.26800000000000002</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>0.39300000000000002</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="D4" s="0">
-        <v>0.13600000000000001</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29299999999999998</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="C5" s="0">
-        <v>0.25</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.23499999999999999</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>431</v>
+        <v>551</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29199999999999998</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>0.32900000000000001</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.247</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
-        <v>0.316</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D7" s="0">
-        <v>0.32100000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="E7" s="0">
-        <v>0.36099999999999999</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>433</v>
+        <v>553</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
-        <v>0.19500000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>0.32000000000000001</v>
+        <v>-0.104</v>
       </c>
       <c r="E8" s="0">
-        <v>0.40300000000000002</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
-        <v>0.035000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="D9" s="0">
-        <v>0.38400000000000001</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="E9" s="0">
-        <v>0.49299999999999999</v>
+        <v>2.101</v>
       </c>
       <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
-        <v>-0.042999999999999997</v>
+        <v>0.113</v>
       </c>
       <c r="D10" s="0">
-        <v>0.434</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E10" s="0">
-        <v>0.58299999999999996</v>
+        <v>1.746</v>
       </c>
       <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>436</v>
+        <v>556</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>-0.67600000000000005</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.27000000000000002</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>-0.71999999999999997</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.040000000000000001</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.78600000000000003</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1.056</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.002</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>0.121</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.36399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.61328125" customWidth="true"/>
+    <col min="3" max="3" width="7.11328125" customWidth="true"/>
+    <col min="4" max="4" width="6.8125" customWidth="true"/>
+    <col min="5" max="5" width="6.51171875" customWidth="true"/>
+    <col min="6" max="6" width="6.8125" customWidth="true"/>
+    <col min="7" max="7" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.154</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-1.7130000000000001</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-1.873</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-1.139</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-1.1859999999999999</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-0.50800000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-2.0470000000000002</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-2.5169999999999999</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0">
+        <v>-0.17000000000000001</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.156</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-1.839</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.0080000000000000002</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-1.484</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-0.316</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-1.4399999999999999</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.378</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.755</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.79600000000000004</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.254</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>-0.31</v>
+      </c>
+      <c r="F16" s="0">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.036999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.8125" customWidth="true"/>
+    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.11328125" customWidth="true"/>
+    <col min="5" max="5" width="6.8125" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="7.3125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" s="0">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="C3" s="0">
+        <v>12.699</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-9.0709999999999997</v>
+      </c>
+      <c r="E3" s="0">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5.0899999999999999</v>
+      </c>
+      <c r="C4" s="0">
+        <v>11.348000000000001</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-5.6619999999999999</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.29</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>7.4820000000000002</v>
+      </c>
+      <c r="D5" s="0">
+        <v>12.295999999999999</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-5.5830000000000002</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>7.0359999999999996</v>
+      </c>
+      <c r="D6" s="0">
+        <v>11.456</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-7.3029999999999999</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-2.3380000000000001</v>
+      </c>
+      <c r="D7" s="0">
+        <v>8.1389999999999993</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-1.1539999999999999</v>
+      </c>
+      <c r="F7" s="0">
+        <v>13.271000000000001</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>-2.9449999999999998</v>
+      </c>
+      <c r="D8" s="0">
+        <v>9.0570000000000004</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-3.7999999999999998</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-0.86199999999999999</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-3.0470000000000002</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-2.5059999999999998</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0">
+        <v>6.508</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-3.0819999999999999</v>
+      </c>
+      <c r="F10" s="0">
+        <v>-1.7709999999999999</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>604</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0">
-        <v>-0.32300000000000001</v>
+        <v>4.6609999999999996</v>
       </c>
       <c r="E11" s="0">
-        <v>0.13100000000000001</v>
+        <v>-6.9820000000000002</v>
       </c>
       <c r="F11" s="0">
-        <v>0.155</v>
-      </c>
+        <v>-7.585</v>
+      </c>
+      <c r="G11" s="0">
+        <v>-2.6150000000000002</v>
+      </c>
+      <c r="H11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>437</v>
+        <v>605</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0">
-        <v>-0.33300000000000002</v>
+        <v>8.5220000000000002</v>
       </c>
       <c r="E12" s="0">
-        <v>0.22700000000000001</v>
+        <v>-5.4589999999999996</v>
       </c>
       <c r="F12" s="0">
-        <v>0.34799999999999998</v>
-      </c>
+        <v>-9.0489999999999995</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="H12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
-      <c r="D13" s="0">
-        <v>-0.35499999999999998</v>
-      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0">
-        <v>0.152</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="F13" s="0">
-        <v>0.39700000000000002</v>
-      </c>
+        <v>-6.3460000000000001</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-14.808999999999999</v>
+      </c>
+      <c r="H13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>439</v>
+        <v>607</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
-      <c r="D14" s="0">
-        <v>-0.46800000000000003</v>
-      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0">
-        <v>0.25</v>
+        <v>4.1310000000000002</v>
       </c>
       <c r="F14" s="0">
-        <v>0.40799999999999997</v>
-      </c>
+        <v>-7.9020000000000001</v>
+      </c>
+      <c r="G14" s="0">
+        <v>-13.92</v>
+      </c>
+      <c r="H14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>440</v>
+        <v>608</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0">
-        <v>-0.54700000000000004</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0">
-        <v>0.23499999999999999</v>
+        <v>2.3370000000000002</v>
       </c>
       <c r="F15" s="0">
-        <v>0.40500000000000003</v>
+        <v>-7.1059999999999999</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-11.628</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>3.302</v>
+      </c>
+      <c r="F16" s="0">
+        <v>-8.3149999999999995</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-15.568</v>
+      </c>
+      <c r="H16" s="0">
+        <v>1.994</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.4140625" customWidth="true"/>
+    <col min="2" max="2" width="6.8125" customWidth="true"/>
+    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.3125" customWidth="true"/>
+    <col min="5" max="5" width="7.3125" customWidth="true"/>
+    <col min="6" max="6" width="7.3125" customWidth="true"/>
+    <col min="7" max="7" width="6.8125" customWidth="true"/>
+    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.023999999999999</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-9.1780000000000008</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-72.882000000000005</v>
+      </c>
+      <c r="E3" s="0">
+        <v>48.543999999999997</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B4" s="0">
+        <v>22.172999999999998</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-6.6619999999999999</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-35.158999999999999</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-67.546999999999997</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
+        <v>25.030000000000001</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-10.497999999999999</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-60.167999999999999</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
+        <v>24.574000000000002</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-12.26</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-56.206000000000003</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
+        <v>-2.319</v>
+      </c>
+      <c r="D7" s="0">
+        <v>17.710999999999999</v>
+      </c>
+      <c r="E7" s="0">
+        <v>-27.670999999999999</v>
+      </c>
+      <c r="F7" s="0">
+        <v>89.679000000000002</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="D8" s="0">
+        <v>8.218</v>
+      </c>
+      <c r="E8" s="0">
+        <v>-2.968</v>
+      </c>
+      <c r="F8" s="0">
+        <v>46.393999999999998</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>-2.8690000000000002</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-11.122999999999999</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-89.337999999999994</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-12.279</v>
+      </c>
+      <c r="F10" s="0">
+        <v>-76.341999999999999</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-2.7360000000000002</v>
+      </c>
+      <c r="E11" s="0">
+        <v>-13.93</v>
+      </c>
+      <c r="F11" s="0">
+        <v>-69.150999999999996</v>
+      </c>
+      <c r="G11" s="0">
+        <v>79.146000000000001</v>
+      </c>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-6.6870000000000003</v>
+      </c>
+      <c r="E12" s="0">
+        <v>18.611000000000001</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-32.274000000000001</v>
+      </c>
+      <c r="G12" s="0">
+        <v>52.597000000000001</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0">
+        <v>-6.516</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-19.613</v>
+      </c>
+      <c r="G13" s="0">
+        <v>24.356000000000002</v>
+      </c>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-36.619999999999997</v>
+      </c>
+      <c r="G14" s="0">
+        <v>33.463000000000001</v>
+      </c>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0">
+        <v>12.518000000000001</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-39.938000000000002</v>
+      </c>
+      <c r="G15" s="0">
+        <v>68.995999999999995</v>
+      </c>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="F16" s="0">
+        <v>-15.257999999999999</v>
+      </c>
+      <c r="G16" s="0">
+        <v>14.361000000000001</v>
+      </c>
+      <c r="H16" s="0">
+        <v>-31.276</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/US_m01_d0.xlsx
+++ b/uploads/US_m01_d0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1131">
   <si>
     <t>Row</t>
   </si>
@@ -1374,6 +1374,1029 @@
   </si>
   <si>
     <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Retail Sales (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Housing Starts (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Federal Funds Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>3-Month Treasury Bill Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>10-Year Treasury Bond Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
   </si>
   <si>
     <t>Row</t>
@@ -2417,7 +3440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="141">
+  <borders count="197">
     <border>
       <left/>
       <right/>
@@ -2565,11 +3588,67 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2711,6 +3790,62 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2735,41 +3870,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>668</v>
+        <v>1009</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>669</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>667</v>
+        <v>1008</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>660</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>661</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>662</v>
+        <v>1003</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>663</v>
+        <v>1004</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>664</v>
+        <v>1005</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>665</v>
+        <v>1006</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>666</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>646</v>
+        <v>987</v>
       </c>
       <c r="B3" s="0">
         <v>204.21700000000001</v>
@@ -2789,7 +3924,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>647</v>
+        <v>988</v>
       </c>
       <c r="B4" s="0">
         <v>161.63499999999999</v>
@@ -2809,7 +3944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>648</v>
+        <v>989</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -2827,7 +3962,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>649</v>
+        <v>990</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -2845,7 +3980,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>650</v>
+        <v>991</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -2865,7 +4000,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>651</v>
+        <v>992</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -2885,7 +4020,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>652</v>
+        <v>993</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -2903,7 +4038,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>653</v>
+        <v>994</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -2921,7 +4056,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>654</v>
+        <v>995</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -2941,7 +4076,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>655</v>
+        <v>996</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -2961,7 +4096,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>656</v>
+        <v>997</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -2981,7 +4116,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>657</v>
+        <v>998</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -2999,7 +4134,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>658</v>
+        <v>999</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3017,7 +4152,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>659</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3055,38 +4190,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>692</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>693</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>691</v>
+        <v>1032</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>685</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>686</v>
+        <v>1027</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>687</v>
+        <v>1028</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>688</v>
+        <v>1029</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>689</v>
+        <v>1030</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>690</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>671</v>
+        <v>1012</v>
       </c>
       <c r="B3" s="0">
         <v>0.021999999999999999</v>
@@ -3103,7 +4238,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>672</v>
+        <v>1013</v>
       </c>
       <c r="B4" s="0">
         <v>0.032000000000000001</v>
@@ -3120,7 +4255,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>673</v>
+        <v>1014</v>
       </c>
       <c r="B5" s="0">
         <v>0.035999999999999997</v>
@@ -3137,7 +4272,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>674</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="0">
         <v>0.045999999999999999</v>
@@ -3154,7 +4289,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>675</v>
+        <v>1016</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3171,7 +4306,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>676</v>
+        <v>1017</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3188,7 +4323,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>677</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -3205,7 +4340,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>678</v>
+        <v>1019</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -3222,7 +4357,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>679</v>
+        <v>1020</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3239,7 +4374,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>680</v>
+        <v>1021</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3256,7 +4391,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>681</v>
+        <v>1022</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3273,7 +4408,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>682</v>
+        <v>1023</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3290,7 +4425,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>683</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3307,7 +4442,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>684</v>
+        <v>1025</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3342,38 +4477,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>716</v>
+        <v>1057</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>717</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>715</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>709</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>710</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>711</v>
+        <v>1052</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>712</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>713</v>
+        <v>1054</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>714</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>695</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="0">
         <v>-0.0050000000000000001</v>
@@ -3390,7 +4525,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>696</v>
+        <v>1037</v>
       </c>
       <c r="B4" s="0">
         <v>-0.0040000000000000001</v>
@@ -3407,7 +4542,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>697</v>
+        <v>1038</v>
       </c>
       <c r="B5" s="0">
         <v>-0.0080000000000000002</v>
@@ -3424,7 +4559,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>698</v>
+        <v>1039</v>
       </c>
       <c r="B6" s="0">
         <v>0.002</v>
@@ -3441,7 +4576,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>699</v>
+        <v>1040</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3458,7 +4593,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>700</v>
+        <v>1041</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3475,7 +4610,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>701</v>
+        <v>1042</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -3492,7 +4627,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>702</v>
+        <v>1043</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -3509,7 +4644,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>703</v>
+        <v>1044</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3526,7 +4661,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>704</v>
+        <v>1045</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3543,7 +4678,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>705</v>
+        <v>1046</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3560,7 +4695,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>706</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3577,7 +4712,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>707</v>
+        <v>1048</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3594,7 +4729,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>708</v>
+        <v>1049</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3629,38 +4764,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>740</v>
+        <v>1081</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>741</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>739</v>
+        <v>1080</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>733</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>734</v>
+        <v>1075</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>735</v>
+        <v>1076</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>736</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>737</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>738</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>719</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="0">
         <v>0.058999999999999997</v>
@@ -3677,7 +4812,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>720</v>
+        <v>1061</v>
       </c>
       <c r="B4" s="0">
         <v>0.112</v>
@@ -3694,7 +4829,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>721</v>
+        <v>1062</v>
       </c>
       <c r="B5" s="0">
         <v>0.183</v>
@@ -3711,7 +4846,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>722</v>
+        <v>1063</v>
       </c>
       <c r="B6" s="0">
         <v>0.22500000000000001</v>
@@ -3728,7 +4863,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>723</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -3745,7 +4880,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>724</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -3762,7 +4897,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>725</v>
+        <v>1066</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -3779,7 +4914,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>726</v>
+        <v>1067</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -3796,7 +4931,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>727</v>
+        <v>1068</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -3813,7 +4948,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>728</v>
+        <v>1069</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -3830,7 +4965,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>729</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -3847,7 +4982,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>730</v>
+        <v>1071</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -3864,7 +4999,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>731</v>
+        <v>1072</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -3881,7 +5016,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>732</v>
+        <v>1073</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -3916,38 +5051,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>764</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>765</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>763</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>757</v>
+        <v>1098</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>758</v>
+        <v>1099</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>759</v>
+        <v>1100</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>760</v>
+        <v>1101</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>761</v>
+        <v>1102</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>762</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>743</v>
+        <v>1084</v>
       </c>
       <c r="B3" s="0">
         <v>0.219</v>
@@ -3964,7 +5099,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>744</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="0">
         <v>0.26200000000000001</v>
@@ -3981,7 +5116,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>745</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="0">
         <v>0.311</v>
@@ -3998,7 +5133,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>746</v>
+        <v>1087</v>
       </c>
       <c r="B6" s="0">
         <v>0.33300000000000002</v>
@@ -4015,7 +5150,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>747</v>
+        <v>1088</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4032,7 +5167,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>748</v>
+        <v>1089</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4049,7 +5184,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>749</v>
+        <v>1090</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4066,7 +5201,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>750</v>
+        <v>1091</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4083,7 +5218,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>751</v>
+        <v>1092</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4100,7 +5235,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>752</v>
+        <v>1093</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4117,7 +5252,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>753</v>
+        <v>1094</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4134,7 +5269,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>754</v>
+        <v>1095</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4151,7 +5286,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>755</v>
+        <v>1096</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4168,7 +5303,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>756</v>
+        <v>1097</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4203,38 +5338,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>788</v>
+        <v>1129</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>789</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>787</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>781</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>782</v>
+        <v>1123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>783</v>
+        <v>1124</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>784</v>
+        <v>1125</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>785</v>
+        <v>1126</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>786</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>767</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="0">
         <v>0.23499999999999999</v>
@@ -4251,7 +5386,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>768</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="0">
         <v>0.26800000000000002</v>
@@ -4268,7 +5403,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>769</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="0">
         <v>0.29299999999999998</v>
@@ -4285,7 +5420,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>770</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="0">
         <v>0.29199999999999998</v>
@@ -4302,7 +5437,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>771</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4319,7 +5454,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>772</v>
+        <v>1113</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4336,7 +5471,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>773</v>
+        <v>1114</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4353,7 +5488,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>774</v>
+        <v>1115</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4370,7 +5505,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>775</v>
+        <v>1116</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4387,7 +5522,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>776</v>
+        <v>1117</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4404,7 +5539,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>777</v>
+        <v>1118</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4421,7 +5556,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>778</v>
+        <v>1119</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4438,7 +5573,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>779</v>
+        <v>1120</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4455,7 +5590,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>780</v>
+        <v>1121</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4489,35 +5624,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>470</v>
+        <v>811</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>471</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>469</v>
+        <v>810</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>464</v>
+        <v>805</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>465</v>
+        <v>806</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>466</v>
+        <v>807</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>467</v>
+        <v>808</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>468</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>450</v>
+        <v>791</v>
       </c>
       <c r="B3" s="0">
         <v>6.6310000000000002</v>
@@ -4535,7 +5670,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>451</v>
+        <v>792</v>
       </c>
       <c r="B4" s="0">
         <v>6.3140000000000001</v>
@@ -4553,7 +5688,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>452</v>
+        <v>793</v>
       </c>
       <c r="B5" s="0">
         <v>4.5709999999999997</v>
@@ -4571,7 +5706,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>453</v>
+        <v>794</v>
       </c>
       <c r="B6" s="0">
         <v>5.6559999999999997</v>
@@ -4589,7 +5724,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>454</v>
+        <v>795</v>
       </c>
       <c r="B7" s="0">
         <v>4.6699999999999999</v>
@@ -4607,7 +5742,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>455</v>
+        <v>796</v>
       </c>
       <c r="B8" s="0">
         <v>4.6710000000000003</v>
@@ -4625,7 +5760,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>456</v>
+        <v>797</v>
       </c>
       <c r="B9" s="0">
         <v>4.7130000000000001</v>
@@ -4643,7 +5778,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>457</v>
+        <v>798</v>
       </c>
       <c r="B10" s="0">
         <v>4.6929999999999996</v>
@@ -4661,7 +5796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>458</v>
+        <v>799</v>
       </c>
       <c r="B11" s="0">
         <v>4.7720000000000002</v>
@@ -4679,7 +5814,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="B12" s="0">
         <v>4.9020000000000001</v>
@@ -4697,7 +5832,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>460</v>
+        <v>801</v>
       </c>
       <c r="B13" s="0">
         <v>4.907</v>
@@ -4715,7 +5850,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>461</v>
+        <v>802</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -4731,7 +5866,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>462</v>
+        <v>803</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -4747,7 +5882,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>463</v>
+        <v>804</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -4784,41 +5919,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>495</v>
+        <v>836</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>496</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>494</v>
+        <v>835</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>487</v>
+        <v>828</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>488</v>
+        <v>829</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>489</v>
+        <v>830</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>491</v>
+        <v>832</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>493</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>473</v>
+        <v>814</v>
       </c>
       <c r="B3" s="0">
         <v>4.069</v>
@@ -4838,7 +5973,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>474</v>
+        <v>815</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -4856,7 +5991,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>475</v>
+        <v>816</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -4874,7 +6009,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>476</v>
+        <v>817</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -4892,7 +6027,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>477</v>
+        <v>818</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4912,7 +6047,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>478</v>
+        <v>819</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4932,7 +6067,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>479</v>
+        <v>820</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4950,7 +6085,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>480</v>
+        <v>821</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4968,7 +6103,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>481</v>
+        <v>822</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4988,7 +6123,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5008,7 +6143,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>483</v>
+        <v>824</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5026,7 +6161,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>484</v>
+        <v>825</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5044,7 +6179,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>485</v>
+        <v>826</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5062,7 +6197,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>486</v>
+        <v>827</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5101,41 +6236,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>520</v>
+        <v>861</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>521</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>519</v>
+        <v>860</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>512</v>
+        <v>853</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>513</v>
+        <v>854</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>514</v>
+        <v>855</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>515</v>
+        <v>856</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>516</v>
+        <v>857</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>517</v>
+        <v>858</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>518</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>498</v>
+        <v>839</v>
       </c>
       <c r="B3" s="0">
         <v>3.7839999999999998</v>
@@ -5155,7 +6290,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>499</v>
+        <v>840</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5173,7 +6308,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>500</v>
+        <v>841</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5191,7 +6326,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>501</v>
+        <v>842</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5209,7 +6344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>502</v>
+        <v>843</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5229,7 +6364,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>503</v>
+        <v>844</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5249,7 +6384,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>504</v>
+        <v>845</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5267,7 +6402,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>505</v>
+        <v>846</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5285,7 +6420,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>506</v>
+        <v>847</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5305,7 +6440,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>507</v>
+        <v>848</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5325,7 +6460,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>508</v>
+        <v>849</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5343,7 +6478,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>509</v>
+        <v>850</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5361,7 +6496,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>510</v>
+        <v>851</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5379,7 +6514,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>511</v>
+        <v>852</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5418,41 +6553,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>545</v>
+        <v>886</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>546</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>544</v>
+        <v>885</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>537</v>
+        <v>878</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>538</v>
+        <v>879</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>539</v>
+        <v>880</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>540</v>
+        <v>881</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>541</v>
+        <v>882</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>542</v>
+        <v>883</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>543</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>523</v>
+        <v>864</v>
       </c>
       <c r="B3" s="0">
         <v>3.7879999999999998</v>
@@ -5472,7 +6607,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>524</v>
+        <v>865</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5490,7 +6625,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>525</v>
+        <v>866</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -5508,7 +6643,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>526</v>
+        <v>867</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -5526,7 +6661,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>527</v>
+        <v>868</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5546,7 +6681,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5566,7 +6701,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -5584,7 +6719,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -5602,7 +6737,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>531</v>
+        <v>872</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5622,7 +6757,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>532</v>
+        <v>873</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5642,7 +6777,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>533</v>
+        <v>874</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5660,7 +6795,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>534</v>
+        <v>875</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5678,7 +6813,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>535</v>
+        <v>876</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5696,7 +6831,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>536</v>
+        <v>877</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5734,38 +6869,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>570</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>568</v>
+        <v>909</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>562</v>
+        <v>903</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>563</v>
+        <v>904</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>565</v>
+        <v>906</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>567</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>548</v>
+        <v>889</v>
       </c>
       <c r="B3" s="0">
         <v>-0.46500000000000002</v>
@@ -5782,7 +6917,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>549</v>
+        <v>890</v>
       </c>
       <c r="B4" s="0">
         <v>-0.44500000000000001</v>
@@ -5799,7 +6934,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>550</v>
+        <v>891</v>
       </c>
       <c r="B5" s="0">
         <v>-0.36499999999999999</v>
@@ -5816,7 +6951,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>551</v>
+        <v>892</v>
       </c>
       <c r="B6" s="0">
         <v>-0.44500000000000001</v>
@@ -5833,7 +6968,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>552</v>
+        <v>893</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5850,7 +6985,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>553</v>
+        <v>894</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5867,7 +7002,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>554</v>
+        <v>895</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5884,7 +7019,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>555</v>
+        <v>896</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5901,7 +7036,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>556</v>
+        <v>897</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -5920,7 +7055,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>557</v>
+        <v>898</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5937,7 +7072,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>558</v>
+        <v>899</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5954,7 +7089,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>559</v>
+        <v>900</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5971,7 +7106,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>560</v>
+        <v>901</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5988,7 +7123,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>561</v>
+        <v>902</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6023,38 +7158,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>593</v>
+        <v>934</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>594</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>592</v>
+        <v>933</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>586</v>
+        <v>927</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>587</v>
+        <v>928</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>588</v>
+        <v>929</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>589</v>
+        <v>930</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>590</v>
+        <v>931</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>591</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>572</v>
+        <v>913</v>
       </c>
       <c r="B3" s="0">
         <v>0.54400000000000004</v>
@@ -6071,7 +7206,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>573</v>
+        <v>914</v>
       </c>
       <c r="B4" s="0">
         <v>0.48599999999999999</v>
@@ -6088,7 +7223,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>574</v>
+        <v>915</v>
       </c>
       <c r="B5" s="0">
         <v>0.46000000000000002</v>
@@ -6105,7 +7240,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>575</v>
+        <v>916</v>
       </c>
       <c r="B6" s="0">
         <v>0.55600000000000005</v>
@@ -6122,7 +7257,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>576</v>
+        <v>917</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6139,7 +7274,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>577</v>
+        <v>918</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6156,7 +7291,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>578</v>
+        <v>919</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -6173,7 +7308,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>579</v>
+        <v>920</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -6190,7 +7325,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>580</v>
+        <v>921</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -6209,7 +7344,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>581</v>
+        <v>922</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6226,7 +7361,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>582</v>
+        <v>923</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6243,7 +7378,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>583</v>
+        <v>924</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6260,7 +7395,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>584</v>
+        <v>925</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6277,7 +7412,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>585</v>
+        <v>926</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6313,41 +7448,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>618</v>
+        <v>959</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>617</v>
+        <v>958</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>610</v>
+        <v>951</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>611</v>
+        <v>952</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>612</v>
+        <v>953</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>613</v>
+        <v>954</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>614</v>
+        <v>955</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>615</v>
+        <v>956</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>616</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>596</v>
+        <v>937</v>
       </c>
       <c r="B3" s="0">
         <v>9.1180000000000003</v>
@@ -6367,7 +7502,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>597</v>
+        <v>938</v>
       </c>
       <c r="B4" s="0">
         <v>5.0899999999999999</v>
@@ -6387,7 +7522,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>598</v>
+        <v>939</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6405,7 +7540,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>599</v>
+        <v>940</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6423,7 +7558,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>600</v>
+        <v>941</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6443,7 +7578,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>601</v>
+        <v>942</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6463,7 +7598,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>602</v>
+        <v>943</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6481,7 +7616,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>603</v>
+        <v>944</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6499,7 +7634,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>604</v>
+        <v>945</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6519,7 +7654,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>605</v>
+        <v>946</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6539,7 +7674,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>606</v>
+        <v>947</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6557,7 +7692,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>607</v>
+        <v>948</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6575,7 +7710,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>608</v>
+        <v>949</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6593,7 +7728,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>609</v>
+        <v>950</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6632,41 +7767,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>643</v>
+        <v>984</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>644</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>642</v>
+        <v>983</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>635</v>
+        <v>976</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>636</v>
+        <v>977</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>637</v>
+        <v>978</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>638</v>
+        <v>979</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>639</v>
+        <v>980</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>640</v>
+        <v>981</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>641</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>621</v>
+        <v>962</v>
       </c>
       <c r="B3" s="0">
         <v>13.023999999999999</v>
@@ -6686,7 +7821,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="B4" s="0">
         <v>22.172999999999998</v>
@@ -6706,7 +7841,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>623</v>
+        <v>964</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6724,7 +7859,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>624</v>
+        <v>965</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6742,7 +7877,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>625</v>
+        <v>966</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6762,7 +7897,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>626</v>
+        <v>967</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6782,7 +7917,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>627</v>
+        <v>968</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6800,7 +7935,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>628</v>
+        <v>969</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6818,7 +7953,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>629</v>
+        <v>970</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6838,7 +7973,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>630</v>
+        <v>971</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6858,7 +7993,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>631</v>
+        <v>972</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6876,7 +8011,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>632</v>
+        <v>973</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6894,7 +8029,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>633</v>
+        <v>974</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6912,7 +8047,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>

--- a/uploads/US_m01_d0.xlsx
+++ b/uploads/US_m01_d0.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1680">
   <si>
     <t>Row</t>
   </si>
@@ -3393,6 +3393,1653 @@
   </si>
   <si>
     <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Real GDP growth (Annualized QoQ%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Headline CPI Inflation (YoY%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Core CPI Inflation (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Unemployment Rate Change (MoM)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Payroll employment (nonfarm, SA) (MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Industrial Production (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Retail Sales (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>US Housing Starts (Annualized MoM%)</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Federal Funds Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>3-Month Treasury Bill Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>10-Year Treasury Bond Rate (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Forecast Dates</t>
+  </si>
+  <si>
+    <t>Series:</t>
+  </si>
+  <si>
+    <t>Moody's Aaa Corporate Bond Yield (MoM (NSA))</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
   </si>
   <si>
     <t>Oct-23</t>
@@ -3440,7 +5087,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="197">
+  <borders count="279">
     <border>
       <left/>
       <right/>
@@ -3644,11 +5291,93 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3846,6 +5575,88 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3855,7 +5666,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -3865,46 +5676,46 @@
     <col min="5" max="5" width="8.3125" customWidth="true"/>
     <col min="6" max="6" width="8.3125" customWidth="true"/>
     <col min="7" max="7" width="8.3125" customWidth="true"/>
-    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+    <col min="8" max="8" width="8.3125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1009</v>
+        <v>1553</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1010</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1008</v>
+        <v>1552</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1001</v>
+        <v>1545</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1002</v>
+        <v>1546</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1003</v>
+        <v>1547</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1004</v>
+        <v>1548</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1005</v>
+        <v>1549</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1006</v>
+        <v>1550</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1007</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>987</v>
+        <v>1530</v>
       </c>
       <c r="B3" s="0">
         <v>204.21700000000001</v>
@@ -3924,7 +5735,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>988</v>
+        <v>1531</v>
       </c>
       <c r="B4" s="0">
         <v>161.63499999999999</v>
@@ -3944,7 +5755,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>989</v>
+        <v>1532</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -3962,7 +5773,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>990</v>
+        <v>1533</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -3980,7 +5791,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>991</v>
+        <v>1534</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4000,7 +5811,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>992</v>
+        <v>1535</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4020,7 +5831,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>993</v>
+        <v>1536</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -4038,7 +5849,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>994</v>
+        <v>1537</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -4056,7 +5867,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>995</v>
+        <v>1538</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4076,7 +5887,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>996</v>
+        <v>1539</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4096,7 +5907,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>997</v>
+        <v>1540</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4116,7 +5927,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>998</v>
+        <v>1541</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4134,7 +5945,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>999</v>
+        <v>1542</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4152,7 +5963,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1000</v>
+        <v>1543</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4168,6 +5979,26 @@
       </c>
       <c r="H16" s="0">
         <v>-316.38900000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>104.623</v>
+      </c>
+      <c r="F17" s="0">
+        <v>429.94299999999998</v>
+      </c>
+      <c r="G17" s="0">
+        <v>122.696</v>
+      </c>
+      <c r="H17" s="0">
+        <v>-90.769999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +6007,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4190,38 +6021,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1033</v>
+        <v>1578</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1034</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1032</v>
+        <v>1577</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1026</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1027</v>
+        <v>1572</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1028</v>
+        <v>1573</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1029</v>
+        <v>1574</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1030</v>
+        <v>1575</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1031</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1012</v>
+        <v>1556</v>
       </c>
       <c r="B3" s="0">
         <v>0.021999999999999999</v>
@@ -4238,7 +6069,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1013</v>
+        <v>1557</v>
       </c>
       <c r="B4" s="0">
         <v>0.032000000000000001</v>
@@ -4255,7 +6086,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1014</v>
+        <v>1558</v>
       </c>
       <c r="B5" s="0">
         <v>0.035999999999999997</v>
@@ -4272,7 +6103,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1015</v>
+        <v>1559</v>
       </c>
       <c r="B6" s="0">
         <v>0.045999999999999999</v>
@@ -4289,7 +6120,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1016</v>
+        <v>1560</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4306,7 +6137,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1017</v>
+        <v>1561</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4323,7 +6154,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1018</v>
+        <v>1562</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4340,7 +6171,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1019</v>
+        <v>1563</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4357,7 +6188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1020</v>
+        <v>1564</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4374,7 +6205,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1021</v>
+        <v>1565</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4391,7 +6222,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1022</v>
+        <v>1566</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4408,7 +6239,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1023</v>
+        <v>1567</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4425,7 +6256,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1024</v>
+        <v>1568</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4442,7 +6273,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1025</v>
+        <v>1569</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4455,6 +6286,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.064000000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-0.19700000000000001</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.058000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4463,7 +6311,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4477,38 +6325,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1057</v>
+        <v>1603</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1058</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1056</v>
+        <v>1602</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1050</v>
+        <v>1596</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1051</v>
+        <v>1597</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1052</v>
+        <v>1598</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1053</v>
+        <v>1599</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1054</v>
+        <v>1600</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1055</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1036</v>
+        <v>1581</v>
       </c>
       <c r="B3" s="0">
         <v>-0.0050000000000000001</v>
@@ -4525,7 +6373,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1037</v>
+        <v>1582</v>
       </c>
       <c r="B4" s="0">
         <v>-0.0040000000000000001</v>
@@ -4542,7 +6390,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1038</v>
+        <v>1583</v>
       </c>
       <c r="B5" s="0">
         <v>-0.0080000000000000002</v>
@@ -4559,7 +6407,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1039</v>
+        <v>1584</v>
       </c>
       <c r="B6" s="0">
         <v>0.002</v>
@@ -4576,7 +6424,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1040</v>
+        <v>1585</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4593,7 +6441,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1041</v>
+        <v>1586</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4610,7 +6458,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1042</v>
+        <v>1587</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4627,7 +6475,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1043</v>
+        <v>1588</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4644,7 +6492,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1044</v>
+        <v>1589</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4661,7 +6509,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1045</v>
+        <v>1590</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4678,7 +6526,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1046</v>
+        <v>1591</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4695,7 +6543,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1047</v>
+        <v>1592</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4712,7 +6560,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1048</v>
+        <v>1593</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -4729,7 +6577,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1049</v>
+        <v>1594</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -4742,6 +6590,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.375</v>
       </c>
     </row>
   </sheetData>
@@ -4750,7 +6615,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -4764,38 +6629,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1081</v>
+        <v>1628</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1082</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1080</v>
+        <v>1627</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1074</v>
+        <v>1621</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1075</v>
+        <v>1622</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1076</v>
+        <v>1623</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1077</v>
+        <v>1624</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1078</v>
+        <v>1625</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1079</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1060</v>
+        <v>1606</v>
       </c>
       <c r="B3" s="0">
         <v>0.058999999999999997</v>
@@ -4812,7 +6677,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1061</v>
+        <v>1607</v>
       </c>
       <c r="B4" s="0">
         <v>0.112</v>
@@ -4829,7 +6694,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1062</v>
+        <v>1608</v>
       </c>
       <c r="B5" s="0">
         <v>0.183</v>
@@ -4846,7 +6711,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1063</v>
+        <v>1609</v>
       </c>
       <c r="B6" s="0">
         <v>0.22500000000000001</v>
@@ -4863,7 +6728,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1064</v>
+        <v>1610</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -4880,7 +6745,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1065</v>
+        <v>1611</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -4897,7 +6762,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1066</v>
+        <v>1612</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -4914,7 +6779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1067</v>
+        <v>1613</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -4931,7 +6796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1068</v>
+        <v>1614</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4948,7 +6813,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1069</v>
+        <v>1615</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -4965,7 +6830,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1070</v>
+        <v>1616</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4982,7 +6847,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1071</v>
+        <v>1617</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -4999,7 +6864,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1072</v>
+        <v>1618</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5016,7 +6881,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1073</v>
+        <v>1619</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5029,6 +6894,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.218</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.0089999999999999993</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.52500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5037,7 +6919,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5051,38 +6933,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1105</v>
+        <v>1653</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1106</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1104</v>
+        <v>1652</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1098</v>
+        <v>1646</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1099</v>
+        <v>1647</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1100</v>
+        <v>1648</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1101</v>
+        <v>1649</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1102</v>
+        <v>1650</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1103</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1084</v>
+        <v>1631</v>
       </c>
       <c r="B3" s="0">
         <v>0.219</v>
@@ -5099,7 +6981,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1085</v>
+        <v>1632</v>
       </c>
       <c r="B4" s="0">
         <v>0.26200000000000001</v>
@@ -5116,7 +6998,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1086</v>
+        <v>1633</v>
       </c>
       <c r="B5" s="0">
         <v>0.311</v>
@@ -5133,7 +7015,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1087</v>
+        <v>1634</v>
       </c>
       <c r="B6" s="0">
         <v>0.33300000000000002</v>
@@ -5150,7 +7032,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1088</v>
+        <v>1635</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5167,7 +7049,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1089</v>
+        <v>1636</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5184,7 +7066,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1090</v>
+        <v>1637</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5201,7 +7083,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1091</v>
+        <v>1638</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5218,7 +7100,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1092</v>
+        <v>1639</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5235,7 +7117,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1093</v>
+        <v>1640</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5252,7 +7134,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1094</v>
+        <v>1641</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5269,7 +7151,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1095</v>
+        <v>1642</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5286,7 +7168,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1096</v>
+        <v>1643</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5303,7 +7185,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1097</v>
+        <v>1644</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5316,6 +7198,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.049000000000000002</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.72699999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5324,7 +7223,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5338,38 +7237,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1129</v>
+        <v>1678</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1130</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1128</v>
+        <v>1677</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1122</v>
+        <v>1671</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1123</v>
+        <v>1672</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1124</v>
+        <v>1673</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1125</v>
+        <v>1674</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1126</v>
+        <v>1675</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1127</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1108</v>
+        <v>1656</v>
       </c>
       <c r="B3" s="0">
         <v>0.23499999999999999</v>
@@ -5386,7 +7285,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1109</v>
+        <v>1657</v>
       </c>
       <c r="B4" s="0">
         <v>0.26800000000000002</v>
@@ -5403,7 +7302,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1110</v>
+        <v>1658</v>
       </c>
       <c r="B5" s="0">
         <v>0.29299999999999998</v>
@@ -5420,7 +7319,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1111</v>
+        <v>1659</v>
       </c>
       <c r="B6" s="0">
         <v>0.29199999999999998</v>
@@ -5437,7 +7336,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1112</v>
+        <v>1660</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -5454,7 +7353,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1113</v>
+        <v>1661</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -5471,7 +7370,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1114</v>
+        <v>1662</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -5488,7 +7387,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1115</v>
+        <v>1663</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -5505,7 +7404,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1116</v>
+        <v>1664</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -5522,7 +7421,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1117</v>
+        <v>1665</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -5539,7 +7438,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1118</v>
+        <v>1666</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5556,7 +7455,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1119</v>
+        <v>1667</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -5573,7 +7472,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1120</v>
+        <v>1668</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -5590,7 +7489,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1121</v>
+        <v>1669</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -5603,6 +7502,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.222</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.062</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.44600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +7527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5624,35 +7540,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>811</v>
+        <v>1347</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>812</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>810</v>
+        <v>1346</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>805</v>
+        <v>1341</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>806</v>
+        <v>1342</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>807</v>
+        <v>1343</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>808</v>
+        <v>1344</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>809</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>791</v>
+        <v>1326</v>
       </c>
       <c r="B3" s="0">
         <v>6.6310000000000002</v>
@@ -5670,7 +7586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>792</v>
+        <v>1327</v>
       </c>
       <c r="B4" s="0">
         <v>6.3140000000000001</v>
@@ -5688,7 +7604,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>793</v>
+        <v>1328</v>
       </c>
       <c r="B5" s="0">
         <v>4.5709999999999997</v>
@@ -5706,7 +7622,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>794</v>
+        <v>1329</v>
       </c>
       <c r="B6" s="0">
         <v>5.6559999999999997</v>
@@ -5724,7 +7640,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>795</v>
+        <v>1330</v>
       </c>
       <c r="B7" s="0">
         <v>4.6699999999999999</v>
@@ -5742,7 +7658,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>796</v>
+        <v>1331</v>
       </c>
       <c r="B8" s="0">
         <v>4.6710000000000003</v>
@@ -5760,7 +7676,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>797</v>
+        <v>1332</v>
       </c>
       <c r="B9" s="0">
         <v>4.7130000000000001</v>
@@ -5778,7 +7694,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>798</v>
+        <v>1333</v>
       </c>
       <c r="B10" s="0">
         <v>4.6929999999999996</v>
@@ -5796,7 +7712,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>799</v>
+        <v>1334</v>
       </c>
       <c r="B11" s="0">
         <v>4.7720000000000002</v>
@@ -5814,7 +7730,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>800</v>
+        <v>1335</v>
       </c>
       <c r="B12" s="0">
         <v>4.9020000000000001</v>
@@ -5832,7 +7748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>801</v>
+        <v>1336</v>
       </c>
       <c r="B13" s="0">
         <v>4.907</v>
@@ -5850,7 +7766,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>802</v>
+        <v>1337</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0">
@@ -5866,7 +7782,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>803</v>
+        <v>1338</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0">
@@ -5882,7 +7798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>804</v>
+        <v>1339</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0">
@@ -5896,6 +7812,24 @@
       </c>
       <c r="F16" s="0">
         <v>11.138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0">
+        <v>1.5800000000000001</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-5.702</v>
+      </c>
+      <c r="E17" s="0">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="F17" s="0">
+        <v>13.435</v>
       </c>
     </row>
   </sheetData>
@@ -5904,7 +7838,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -5919,41 +7853,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>836</v>
+        <v>1373</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>837</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>835</v>
+        <v>1372</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>828</v>
+        <v>1365</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>829</v>
+        <v>1366</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>830</v>
+        <v>1367</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>831</v>
+        <v>1368</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>832</v>
+        <v>1369</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>833</v>
+        <v>1370</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>834</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>814</v>
+        <v>1350</v>
       </c>
       <c r="B3" s="0">
         <v>4.069</v>
@@ -5973,7 +7907,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>815</v>
+        <v>1351</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -5991,7 +7925,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>816</v>
+        <v>1352</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6009,7 +7943,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>817</v>
+        <v>1353</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6027,7 +7961,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>818</v>
+        <v>1354</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6047,7 +7981,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>819</v>
+        <v>1355</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6067,7 +8001,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>820</v>
+        <v>1356</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6085,7 +8019,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>821</v>
+        <v>1357</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6103,7 +8037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>822</v>
+        <v>1358</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6123,7 +8057,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>823</v>
+        <v>1359</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6143,7 +8077,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>824</v>
+        <v>1360</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6161,7 +8095,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>825</v>
+        <v>1361</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6179,7 +8113,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>826</v>
+        <v>1362</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6197,7 +8131,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>827</v>
+        <v>1363</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6213,6 +8147,24 @@
       </c>
       <c r="H16" s="0">
         <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1.139</v>
+      </c>
+      <c r="H17" s="0">
+        <v>2.3580000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6221,7 +8173,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6236,41 +8188,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>861</v>
+        <v>1399</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>862</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>860</v>
+        <v>1398</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>853</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>854</v>
+        <v>1392</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>855</v>
+        <v>1393</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>856</v>
+        <v>1394</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>857</v>
+        <v>1395</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>858</v>
+        <v>1396</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>859</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>839</v>
+        <v>1376</v>
       </c>
       <c r="B3" s="0">
         <v>3.7839999999999998</v>
@@ -6290,7 +8242,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>840</v>
+        <v>1377</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6308,7 +8260,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>841</v>
+        <v>1378</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6326,7 +8278,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>842</v>
+        <v>1379</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6344,7 +8296,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>843</v>
+        <v>1380</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6364,7 +8316,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>844</v>
+        <v>1381</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6384,7 +8336,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>845</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6402,7 +8354,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>846</v>
+        <v>1383</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6420,7 +8372,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>847</v>
+        <v>1384</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6440,7 +8392,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>848</v>
+        <v>1385</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6460,7 +8412,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>849</v>
+        <v>1386</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6478,7 +8430,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>850</v>
+        <v>1387</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6496,7 +8448,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>851</v>
+        <v>1388</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6514,7 +8466,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>852</v>
+        <v>1389</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6530,6 +8482,24 @@
       </c>
       <c r="H16" s="0">
         <v>2.7290000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="G17" s="0">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="H17" s="0">
+        <v>2.6829999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6538,7 +8508,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6553,41 +8523,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>886</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>887</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>885</v>
+        <v>1424</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>878</v>
+        <v>1417</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>879</v>
+        <v>1418</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>880</v>
+        <v>1419</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>881</v>
+        <v>1420</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>882</v>
+        <v>1421</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>883</v>
+        <v>1422</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>884</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>864</v>
+        <v>1402</v>
       </c>
       <c r="B3" s="0">
         <v>3.7879999999999998</v>
@@ -6607,7 +8577,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>865</v>
+        <v>1403</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0">
@@ -6625,7 +8595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>866</v>
+        <v>1404</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -6643,7 +8613,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>867</v>
+        <v>1405</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -6661,7 +8631,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>868</v>
+        <v>1406</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6681,7 +8651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>869</v>
+        <v>1407</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -6701,7 +8671,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>870</v>
+        <v>1408</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -6719,7 +8689,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>871</v>
+        <v>1409</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -6737,7 +8707,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>872</v>
+        <v>1410</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -6757,7 +8727,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>873</v>
+        <v>1411</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -6777,7 +8747,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>874</v>
+        <v>1412</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -6795,7 +8765,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>875</v>
+        <v>1413</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -6813,7 +8783,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>876</v>
+        <v>1414</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -6831,7 +8801,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>877</v>
+        <v>1415</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -6847,6 +8817,24 @@
       </c>
       <c r="H16" s="0">
         <v>1.256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="G17" s="0">
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="H17" s="0">
+        <v>2.0600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +8843,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -6869,38 +8857,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>910</v>
+        <v>1450</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>911</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>909</v>
+        <v>1449</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>903</v>
+        <v>1443</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>904</v>
+        <v>1444</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>905</v>
+        <v>1445</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>906</v>
+        <v>1446</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>907</v>
+        <v>1447</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>908</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>889</v>
+        <v>1428</v>
       </c>
       <c r="B3" s="0">
         <v>-0.46500000000000002</v>
@@ -6917,7 +8905,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>890</v>
+        <v>1429</v>
       </c>
       <c r="B4" s="0">
         <v>-0.44500000000000001</v>
@@ -6934,7 +8922,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>891</v>
+        <v>1430</v>
       </c>
       <c r="B5" s="0">
         <v>-0.36499999999999999</v>
@@ -6951,7 +8939,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>892</v>
+        <v>1431</v>
       </c>
       <c r="B6" s="0">
         <v>-0.44500000000000001</v>
@@ -6968,7 +8956,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>893</v>
+        <v>1432</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -6985,7 +8973,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>894</v>
+        <v>1433</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7002,7 +8990,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>895</v>
+        <v>1434</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7019,7 +9007,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>896</v>
+        <v>1435</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7036,7 +9024,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>897</v>
+        <v>1436</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7055,7 +9043,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>898</v>
+        <v>1437</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7072,7 +9060,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>899</v>
+        <v>1438</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7089,7 +9077,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>900</v>
+        <v>1439</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7106,7 +9094,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>901</v>
+        <v>1440</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7123,7 +9111,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>902</v>
+        <v>1441</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7136,6 +9124,23 @@
       </c>
       <c r="G16" s="0">
         <v>-0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.127</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.149</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-0.014999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7144,7 +9149,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7158,38 +9163,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>934</v>
+        <v>1475</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>935</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>933</v>
+        <v>1474</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>927</v>
+        <v>1468</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>928</v>
+        <v>1469</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>929</v>
+        <v>1470</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>930</v>
+        <v>1471</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>931</v>
+        <v>1472</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>932</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>913</v>
+        <v>1453</v>
       </c>
       <c r="B3" s="0">
         <v>0.54400000000000004</v>
@@ -7206,7 +9211,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>914</v>
+        <v>1454</v>
       </c>
       <c r="B4" s="0">
         <v>0.48599999999999999</v>
@@ -7223,7 +9228,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>915</v>
+        <v>1455</v>
       </c>
       <c r="B5" s="0">
         <v>0.46000000000000002</v>
@@ -7240,7 +9245,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>916</v>
+        <v>1456</v>
       </c>
       <c r="B6" s="0">
         <v>0.55600000000000005</v>
@@ -7257,7 +9262,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>917</v>
+        <v>1457</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7274,7 +9279,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>918</v>
+        <v>1458</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7291,7 +9296,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>919</v>
+        <v>1459</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0">
@@ -7308,7 +9313,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>920</v>
+        <v>1460</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0">
@@ -7325,7 +9330,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>921</v>
+        <v>1461</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0">
@@ -7344,7 +9349,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>922</v>
+        <v>1462</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7361,7 +9366,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>923</v>
+        <v>1463</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7378,7 +9383,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>924</v>
+        <v>1464</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7395,7 +9400,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>925</v>
+        <v>1465</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7412,7 +9417,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>926</v>
+        <v>1466</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7425,6 +9430,23 @@
       </c>
       <c r="G16" s="0">
         <v>0.036999999999999998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>-0.099000000000000005</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-0.85099999999999998</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -7433,7 +9455,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7448,41 +9470,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>959</v>
+        <v>1501</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>960</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>958</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>951</v>
+        <v>1493</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>952</v>
+        <v>1494</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>953</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>954</v>
+        <v>1496</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>955</v>
+        <v>1497</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>956</v>
+        <v>1498</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>957</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>937</v>
+        <v>1478</v>
       </c>
       <c r="B3" s="0">
         <v>9.1180000000000003</v>
@@ -7502,7 +9524,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>938</v>
+        <v>1479</v>
       </c>
       <c r="B4" s="0">
         <v>5.0899999999999999</v>
@@ -7522,7 +9544,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>939</v>
+        <v>1480</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7540,7 +9562,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>940</v>
+        <v>1481</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7558,7 +9580,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>941</v>
+        <v>1482</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7578,7 +9600,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>942</v>
+        <v>1483</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7598,7 +9620,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>943</v>
+        <v>1484</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7616,7 +9638,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>944</v>
+        <v>1485</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7634,7 +9656,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>945</v>
+        <v>1486</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7654,7 +9676,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>946</v>
+        <v>1487</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7674,7 +9696,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>947</v>
+        <v>1488</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -7692,7 +9714,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>948</v>
+        <v>1489</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -7710,7 +9732,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>949</v>
+        <v>1490</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -7728,7 +9750,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>950</v>
+        <v>1491</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -7744,6 +9766,26 @@
       </c>
       <c r="H16" s="0">
         <v>1.994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-8.9800000000000004</v>
+      </c>
+      <c r="G17" s="0">
+        <v>-8.6029999999999998</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.26500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7752,7 +9794,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.4140625" customWidth="true"/>
@@ -7762,46 +9804,46 @@
     <col min="5" max="5" width="7.3125" customWidth="true"/>
     <col min="6" max="6" width="7.3125" customWidth="true"/>
     <col min="7" max="7" width="6.8125" customWidth="true"/>
-    <col min="8" max="8" width="7.2109375" customWidth="true"/>
+    <col min="8" max="8" width="7.3125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>984</v>
+        <v>1527</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>985</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>983</v>
+        <v>1526</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>976</v>
+        <v>1519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>977</v>
+        <v>1520</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>978</v>
+        <v>1521</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>979</v>
+        <v>1522</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>980</v>
+        <v>1523</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>981</v>
+        <v>1524</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>982</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>962</v>
+        <v>1504</v>
       </c>
       <c r="B3" s="0">
         <v>13.023999999999999</v>
@@ -7821,7 +9863,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>963</v>
+        <v>1505</v>
       </c>
       <c r="B4" s="0">
         <v>22.172999999999998</v>
@@ -7841,7 +9883,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>964</v>
+        <v>1506</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -7859,7 +9901,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>965</v>
+        <v>1507</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -7877,7 +9919,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>966</v>
+        <v>1508</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">
@@ -7897,7 +9939,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>967</v>
+        <v>1509</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0">
@@ -7917,7 +9959,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>968</v>
+        <v>1510</v>
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
@@ -7935,7 +9977,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>969</v>
+        <v>1511</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0"/>
@@ -7953,7 +9995,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>970</v>
+        <v>1512</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -7973,7 +10015,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>971</v>
+        <v>1513</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
@@ -7993,7 +10035,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>972</v>
+        <v>1514</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -8011,7 +10053,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>973</v>
+        <v>1515</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
@@ -8029,7 +10071,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>974</v>
+        <v>1516</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
@@ -8047,7 +10089,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>975</v>
+        <v>1517</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
@@ -8065,6 +10107,26 @@
         <v>-31.276</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0">
+        <v>11.561999999999999</v>
+      </c>
+      <c r="F17" s="0">
+        <v>-13.036</v>
+      </c>
+      <c r="G17" s="0">
+        <v>36.25</v>
+      </c>
+      <c r="H17" s="0">
+        <v>-31.835999999999999</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>